--- a/excel/6.xlsx
+++ b/excel/6.xlsx
@@ -1160,7 +1160,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-3</t>
+          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-1-2</t>
+          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1271,12 +1271,16 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>电动汽车设计李玉善,刘宗锋 (1-8周) 车辆工程2018-1-4</t>
+          <t>电动汽车设计李玉善 (1-2,4-8周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>普通化学（B）陈伟 (4-11周) 地质工程2021-1-2</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>供应链管理李美燕 (4-15周) 工业工程2018-1-3</t>
@@ -1295,7 +1299,7 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>电动汽车设计李玉善,刘宗锋 (1-8周) 车辆工程2018-1-4</t>
+          <t>电动汽车设计李玉善 (1-8周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1370,7 +1374,7 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>液压、液力与气压传动刘俊龙,刘宗锋 (1-9周) 车辆工程2019-1-3</t>
+          <t>液压、液力与气压传动刘俊龙 (1-9周) 车辆工程2019-1-3</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1390,7 +1394,7 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>液压、液力与气压传动刘俊龙,刘宗锋 (1-9周) 车辆工程2019-1-3</t>
+          <t>液压、液力与气压传动刘俊龙 (1-9周) 车辆工程2019-1-3</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr"/>
@@ -1591,7 +1595,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
@@ -1704,7 +1708,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
+          <t>思想道德与法治郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
@@ -1849,7 +1853,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>车辆动力学基础杜现斌,王强 (2-9周) 车辆工程2018-1-4</t>
+          <t>车辆动力学基础杜现斌 (2-9周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1879,7 +1883,7 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>车辆动力学基础杜现斌,王强 (2-9周) 车辆工程2018-1-4</t>
+          <t>车辆动力学基础杜现斌 (2-9周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1897,7 +1901,7 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>应用统计学(A)马媛 (1-8周) 工商管理2019-1-2</t>
+          <t>应用统计学(A)马媛 (1,3-8周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -1982,7 +1986,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2028,7 +2032,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2077,7 +2081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>采矿科学与技术（双语）蒋力帅 (1-9周) 采矿工程2018-1-2</t>
+          <t>采矿科学与技术（双语）蒋力帅 (1-2,4-9周) 采矿工程2018-1-2</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2204,7 +2208,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>工程测试技术基础隋秀华 (2-10周) 机械设计制造及其自动化2019-1-3</t>
+          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -2265,7 +2269,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>工程测试技术基础隋秀华 (2-10周) 机械设计制造及其自动化2019-1-3</t>
+          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -2287,7 +2291,11 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>岩浆岩岩石学王淞杰 (6周) 资源勘查工程2020-2</t>
+        </is>
+      </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
@@ -2326,11 +2334,7 @@
           <t>专业导论*韩永芹 (4-11周) 高分子材料与工程2021-1-3</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>地球化学陈桥 (1-8周) 地质工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -2712,7 +2716,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>突发事件案例分析杨文宇 (5-9周) 安全工程（应急管理方向）2019</t>
+          <t>突发事件案例分析董晓素 (5-9周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -2975,7 +2979,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -3009,7 +3013,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 机械电子工程2021-4-6</t>
+          <t>思想道德与法治高华 (4-15周) 机械电子工程2021-4-6</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3030,12 +3034,12 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr"/>
@@ -3478,11 +3482,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>几何量公差与检测戴向云 (2-9周) 机械设计制造及其自动化2019-1-3</t>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>突发事件案例分析刘义鑫 (6-9周) 安全工程（应急管理方向）2018</t>
+          <t>突发事件案例分析董晓素 (6-9周) 安全工程（应急管理方向）2018</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>运筹学（B）庄晓雯 (1-13周) 工商管理2019-2</t>
+          <t>运筹学（B）庄晓雯 (2-13周) 工商管理2019-2</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
+          <t>马克思主义基本原理贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -4025,7 +4025,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4055,7 +4055,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="U36" t="inlineStr"/>
@@ -4159,11 +4159,7 @@
           <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -4228,7 +4224,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
+          <t>马克思主义基本原理吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -4258,7 +4254,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -4292,7 +4288,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr"/>
@@ -5804,7 +5800,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5812,11 +5808,7 @@
           <t>电工电子技术（B）王亚群 (1-12周) 安全工程2020-4-5</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
@@ -6365,7 +6357,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6381,7 +6373,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+          <t>马克思主义基本原理魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -6399,7 +6391,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -6411,12 +6403,12 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
+          <t>马克思主义基本原理王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -6437,7 +6429,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr"/>
@@ -6556,7 +6548,11 @@
           <t>地统计学概论孔冬贤 (4-11周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>采矿学黄万朋 (1-8周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>遥感数字图像处理蔡玉林 (3-13周) 地理信息科学2019-1-2</t>
@@ -6647,7 +6643,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>专业英语赵俐红 (4-11周) 勘查技术与工程2018-1-2</t>
+          <t>专业英语赵俐红 (5-11周) 勘查技术与工程2018-1-2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -6766,11 +6762,7 @@
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>岩浆岩岩石学王淞杰 (2-7周) 资源勘查工程2020-2</t>
-        </is>
-      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
           <t>网上支付与结算王松 (1-9周) 电子商务2018-1-2</t>
@@ -7531,11 +7523,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>微生物学韩秋霞 (2-7,10-14周) 生物工程2019-1</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
           <t>分子生物学吕英海 (1-7,10-11周) 生物工程2019-1</t>
@@ -8456,7 +8444,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -8474,14 +8462,10 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
@@ -8495,11 +8479,7 @@
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
@@ -8533,7 +8513,11 @@
           <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -8553,13 +8537,21 @@
           <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr">
         <is>
           <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr"/>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr">
         <is>

--- a/excel/6.xlsx
+++ b/excel/6.xlsx
@@ -850,7 +850,11 @@
           <t>国际贸易理论与实务李丽丽 (1-9周) 电子商务2019-1-2</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>绿色开采技术郭忠平 (6周) 采矿工程2018-1-3</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
@@ -928,18 +932,18 @@
           <t>爆破安全辛林 (6-9周) 安全工程2019-1-4</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>绿色开采技术郭忠平 (6-10周) 采矿工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
           <t>可靠性工程于师建 (1-8周) 安全工程2019-1-4</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>证券投资学周衍平 (6周) 投资学2019-1-2</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr">
         <is>
           <t>工程热力学与传热学董晓素 (1-12周) 安全工程2020-5</t>
@@ -978,7 +982,11 @@
           <t>化工仪表及自动化苗雅楠 (5-6周) 安全工程2019-1-2</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>岩体力学张伟杰 (6周) 地质工程2019-1-2</t>
+        </is>
+      </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
@@ -1014,7 +1022,11 @@
           <t>应用统计学（C）赵峰 (1-8周) 电子商务2019-1-2</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>水文地质学尹会永 (4-9周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
@@ -1085,7 +1097,11 @@
           <t>中央银行学闻德美 (1-9周) 金融学2018-1-2</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>化工仪表及自动化牛海丽 (6周) 生物工程2019-1-2</t>
+        </is>
+      </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
@@ -1147,7 +1163,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-1-2</t>
+          <t>材料力学性能李敏 (2-7,9-10周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1182,7 +1198,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-1-2</t>
+          <t>材料力学性能李敏 (2-3,5-9周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1193,7 +1209,7 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
-          <t>粉末冶金学谢鲲 (1-8周) 金属材料工程2018-1-3</t>
+          <t>粉末冶金学谢鲲 (1-7周) 金属材料工程2018-1-3</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1203,7 +1219,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-3</t>
+          <t>材料力学性能李敏 (2-7,9-10周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr"/>
@@ -1312,7 +1328,11 @@
           <t>专业英语杨坤 (1-8周) 工程力学2018-1-3</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>计算机地质绘图王其芳 (4-9周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1368,7 +1388,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>工程测量景冬 (1-9周) 采矿工程（智能开采方向）2019-2</t>
+          <t>工程测量景冬 (1-7,9周) 采矿工程（智能开采方向）2019-2</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
@@ -1390,7 +1410,11 @@
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>普通地质学张丽萍 (6周) 水文与水资源工程2021-1</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
@@ -1401,12 +1425,12 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1422,12 +1446,12 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1646,17 +1670,9 @@
           <t>地震勘探原理林年添 (2-10周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>水文地质学尹会永 (4-9周) 资源勘查工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>计算机地质绘图王其芳 (4-9周) 资源勘查工程2019-1-3</t>
@@ -1680,11 +1696,7 @@
           <t>地震勘探原理林年添 (2-10周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1858,7 +1870,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>证券投资学周衍平 (1-9周) 投资学2019-1-2</t>
+          <t>证券投资学周衍平 (1-4,6-9周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1952,7 +1964,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1968,7 +1980,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 采矿工程2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 采矿工程2021-1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1976,7 +1988,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2158,7 +2170,11 @@
           <t>J14-211室</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)孔昭莉 (4-18周) 地质工程2021-2</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
@@ -2257,11 +2273,7 @@
           <t>锅炉原理李志敏 (4-15周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>构造地质学张丽萍 (1-8周) 勘查技术与工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -2291,11 +2303,7 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>岩浆岩岩石学王淞杰 (6周) 资源勘查工程2020-2</t>
-        </is>
-      </c>
+      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
@@ -2416,7 +2424,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)陈昕 (4-19周) 资源勘查工程2021-1</t>
+          <t>大学英语（A)(2-1)陈昕 (4-18周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2607,7 +2615,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>概率论与数理统计黄珍 (1-12周) 测绘工程2020-4-5</t>
+          <t>概率论与数理统计黄珍 (1-3,5-12周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -2619,7 +2627,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)谭剑鸣 (4-19周) 机械电子工程2021-6</t>
+          <t>大学英语（A)(2-1)谭剑鸣 (4-18周) 机械电子工程2021-6</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2629,7 +2637,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)郭放 (4-19周) 地理信息科学2021-3</t>
+          <t>大学英语（A)(2-1)郭放 (4-18周) 地理信息科学2021-3</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -2966,7 +2974,11 @@
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>大学生心理健康教育薄艳艳,牟杰 (4-11周) 地质工程2021-1-3班,勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>工程地质专业英语张鹏飞 (1-8周) 地质工程2019-1</t>
@@ -3017,7 +3029,11 @@
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>大学生心理健康教育薄艳艳,牟杰 (4-11周) 地质工程2021-1-3班,勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
@@ -3026,7 +3042,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr"/>
@@ -3034,12 +3050,12 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
+          <t>数据库技术基础张永华 (6周) 临班77</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
+          <t>数据库技术基础张永华 (6周) 临班77</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr"/>
@@ -3060,11 +3076,7 @@
           <t>J14-307室</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>无机材料生产设备王相南 (5-8周) 无机非金属材料工程2018</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>金属成型原理与工艺李志超 (5-8周) 金属材料工程2019-3</t>
@@ -3123,7 +3135,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>无机材料生产设备王相南 (5-8周) 无机非金属材料工程2018</t>
+          <t>无机材料生产设备王相南 (6-8周) 无机非金属材料工程2018</t>
         </is>
       </c>
       <c r="U26" t="inlineStr"/>
@@ -3253,7 +3265,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3291,7 +3303,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3352,11 +3364,7 @@
           <t>线性代数李刚 (1-11周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>计算机程序设计(VF)康宏 (1-6周) 工商管理2020-1-2</t>
@@ -3371,7 +3379,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 勘查技术与工程2021-1</t>
+          <t>大学英语（A)(2-1)张兴梅 (4-18周) 勘查技术与工程2021-1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -3407,11 +3415,7 @@
           <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>地下水动力学王敏 (2-12周) 水文与水资源工程2019-1-2</t>
@@ -3430,7 +3434,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr"/>
@@ -3514,7 +3518,7 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>工程测量景冬 (1-9周) 采矿工程（智能开采方向）2019-2</t>
+          <t>工程测量景冬 (1-7,9周) 采矿工程（智能开采方向）2019-2</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -3554,16 +3558,8 @@
           <t>国际商法（A）刘本玲 (1-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>外贸英文函电于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>商务英语口语于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
@@ -3598,7 +3594,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>国际金融孙江永 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>国际服务贸易李丽丽 (5-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3625,7 +3621,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>国际服务贸易李丽丽 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>国际金融孙江永 (5-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr"/>
@@ -3637,7 +3633,7 @@
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>会计信息系统刘超 (6-19周) 会计学(辅修) 2019版</t>
+          <t>会计信息系统刘超 (6-18周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr"/>
@@ -3932,7 +3928,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>沉积岩岩石学韩作振 (6-13周) 资源勘查工程2020-1</t>
+          <t>沉积岩岩石学韩作振 (6-11,13周) 资源勘查工程2020-1</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3959,13 +3955,13 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>构造地质学金爱文 (1-8,10周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>岩石学樊爱萍,杨仁超 (1-8周) 地质工程2020-2</t>
+          <t>岩石学樊爱萍,杨仁超 (1-4,6-7周) 地质工程2020-2</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3999,7 +3995,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>沉积环境与沉积相杨仁超 (4-9周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>沉积环境与沉积相杨仁超 (4-6,9周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr"/>
@@ -4070,11 +4066,7 @@
           <t>线性代数张伟伟 (1-11周) 金融学2020-1-2班,会计学2020-1-2</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
-        </is>
-      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
           <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
@@ -4086,19 +4078,11 @@
           <t>工程概论张传明 (1-8周) 水文与水资源工程2020-1-2</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>中国近现代史纲要叶小青 (4-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+          <t>中国近现代史纲要叶小青 (4-7,9-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr"/>
@@ -4126,7 +4110,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李燕妮 (4-19周) 机械电子工程2021-2</t>
+          <t>大学英语（A)(2-1)李燕妮 (4-10,12-18周) 机械电子工程2021-2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4151,12 +4135,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)徐科吉 (4-19周) 高分子材料与工程2021-3</t>
+          <t>大学英语（A)(2-1)徐科吉 (4-10,12-18周) 高分子材料与工程2021-3</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -4182,7 +4166,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4254,16 +4238,12 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-4,6-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
           <t>毛泽东思想和中国特色社会主义理论体系概论张国庆 (2-13周) 生物工程2020-1-2班,化学工程与工艺2020-1-2</t>
@@ -4371,7 +4351,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>测井地质学杨思通,张涛 (4-12周) 资源勘查工程2018-1-3</t>
+          <t>测井地质学杨思通,张涛 (4-10,12周) 资源勘查工程2018-1-3</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -4437,7 +4417,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>金属塑性成形原理刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
+          <t>金属塑性成形原理刘杰 (5-8,10-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -4463,7 +4443,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>金属塑性成形原理刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
+          <t>金属塑性成形原理刘杰 (5-8,10-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4526,7 +4506,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4569,7 +4549,7 @@
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>机械原理（A）魏军英 (5-15周) 材料成型及控制工程2019-1-2</t>
+          <t>机械原理（A）魏军英 (5-7,9-15周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -4630,7 +4610,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>工程测量翟敏 (1-9周) 采矿工程2019-4</t>
+          <t>工程测量翟敏 (1-6,8-9周) 采矿工程2019-4</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
@@ -4739,7 +4719,7 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
-          <t>采矿科学与技术（双语）蒋力帅 (1-9周) 采矿工程2018-1-2</t>
+          <t>采矿科学与技术（双语）蒋力帅 (1-3,5-9周) 采矿工程2018-1-2</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -4856,10 +4836,14 @@
           <t>工程热力学与传热学董晓素 (1-12周) 安全工程2020-5</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>环境工程微生物（双语）高宇 (1-9周) 环境工程2019-3</t>
+          <t>环境工程微生物（双语）高宇 (1-8周) 环境工程2019-3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -5010,7 +4994,7 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -5147,11 +5131,7 @@
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>几何量公差孙静 (1-9周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
           <t>过程装备密封技术李晓宇 (3-10周) 过程装备与控制工程2018-1-3</t>
@@ -5173,11 +5153,7 @@
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>几何量公差孙静 (1-9周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
           <t>装备的失效分析王凤芹 (3-10周) 过程装备与控制工程2018-1-3</t>
@@ -5220,11 +5196,7 @@
           <t>工程热力学与传热学李崇山 (1-12周) 安全工程2020-1-2</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>构造地质学张丽萍 (1-6周) 勘查技术与工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
           <t>土力学纪巧玲,王颖 (1-12周) 交通工程2019-1-2</t>
@@ -5242,7 +5214,11 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>材料科学基础宋亮 (6周) 材料化学2019-1-2</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr">
         <is>
           <t>电工电子技术（B）王亚群 (1-12周) 安全工程2020-4-5</t>
@@ -5442,11 +5418,7 @@
           <t>J14-406室</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>铸造工艺学王淑峰 (1-8周) 金属材料工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
           <t>材料化学（双语教学）张芬 (1-6周) 材料化学2018-1-2</t>
@@ -5555,7 +5527,7 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>材料科学基础宋亮 (3-6周) 材料化学2019-1-2</t>
+          <t>材料科学基础宋亮 (3-4,6周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -5652,7 +5624,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>高分子化学韩永芹 (1-9周) 材料化学2019-1-2</t>
+          <t>高分子化学韩永芹 (1-8周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -5728,7 +5700,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -5737,7 +5709,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5754,7 +5726,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -5810,11 +5782,7 @@
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>普通地质学张丽萍 (4-11周) 水文与水资源工程2021-1</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
           <t>沉积岩岩石学樊爱萍 (6-13周) 资源勘查工程2020-3</t>
@@ -5822,7 +5790,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>会计学(B)刘英姿 (1-8周) 工商管理2020-1-2</t>
+          <t>会计学(B)刘英姿 (1-7周) 工商管理2020-1-2</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -5831,7 +5799,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 应用化学2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -5847,7 +5815,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李恒 (4-19周) 勘查技术与工程2021-2</t>
+          <t>大学英语（A)(2-1)李恒 (4-6周) 勘查技术与工程2021-2</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -6126,7 +6094,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -6284,7 +6252,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -6311,7 +6279,7 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>国际经济法学韩天竹,牛哲莉 (1-16周) 法学2019-1-3</t>
+          <t>国际经济法学韩天竹,牛哲莉 (1-6,8周) 法学2019-1-3</t>
         </is>
       </c>
       <c r="U62" t="inlineStr"/>
@@ -6352,7 +6320,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>构造地质学金爱文 (1-8,10周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -6455,11 +6423,7 @@
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>岩体力学张伟杰 (3-8周) 地质工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
@@ -6482,7 +6446,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -6512,14 +6476,10 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>构造地质学张丽萍 (1-8周) 勘查技术与工程2019-1-2</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
@@ -6560,7 +6520,11 @@
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>大地测量学基础郭金运 (1-14周) 测绘工程2019-3</t>
@@ -6743,7 +6707,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>普通地质学王泽利 (4-15周) 资源勘查工程2021-2</t>
+          <t>普通地质学王泽利 (4-10,12-15周) 资源勘查工程2021-2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -6762,7 +6726,11 @@
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>岩浆岩岩石学王淞杰 (6周) 资源勘查工程2020-2</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr">
         <is>
           <t>网上支付与结算王松 (1-9周) 电子商务2018-1-2</t>
@@ -6950,7 +6918,11 @@
           <t>有机化学（2-2）高登征 (1-8周) 生物工程2020-1-2</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -7130,7 +7102,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>水灾害防治魏久传 (6-13周) 水文与水资源工程2018-2</t>
+          <t>水灾害防治魏久传 (6-12周) 水文与水资源工程2018-2</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -7330,7 +7302,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>物理化学孔霞 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学孔霞 (4-12,14-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -7512,12 +7484,12 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>化工仪表及自动化牛海丽 (1-7,10周) 生物工程2019-1-2</t>
+          <t>化工仪表及自动化牛海丽 (1-3,5-7,10周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -7547,19 +7519,19 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>化工仪表及自动化牛海丽 (1-7,10周) 生物工程2019-1-2</t>
+          <t>化工仪表及自动化牛海丽 (1-4,6-7,10周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr"/>
@@ -8520,11 +8492,7 @@
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
           <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
@@ -8534,7 +8502,7 @@
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -8555,14 +8523,10 @@
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr">
         <is>
           <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
@@ -8571,7 +8535,11 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>水文地质与工程地质学高宗军,张彧齐 (3-14周) 勘查技术与工程2019-1-2</t>
+        </is>
+      </c>
       <c r="X89" t="inlineStr">
         <is>
           <t>地球物理勘探李建平 (4-6周) 资源勘查工程（海洋矿产资源方向）2018</t>

--- a/excel/6.xlsx
+++ b/excel/6.xlsx
@@ -659,8 +659,10 @@
           <t>0304</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>506</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0506</t>
+        </is>
       </c>
       <c r="K2" t="n">
         <v>708</v>
@@ -812,7 +814,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>电子商务专业英语文献阅读孙丽华 (1-9周) 电子商务2019-2</t>
+          <t>电子商务专业英语文献阅读孙丽华 (1,3-9周) 电子商务2019-2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -884,12 +886,12 @@
           <t>通风工程李崇山 (1-8周) 安全工程2019-1-4</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>火灾事故调查杜文州 (4-11周) 安全工程2019-3-4</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>火灾事故调查孔彪 (6-7周) 安全工程2019-3-4</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
@@ -907,7 +909,11 @@
           <t>机械与电气安全王相 (5-12周) 安全工程2019-1-4</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>金属材料工程专业英语朱慧灵 (6周) 金属材料工程2019-4-5</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
@@ -921,7 +927,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>火灾事故调查杜文州 (4-11周) 安全工程2019-3-4</t>
+          <t>火灾事故调查孔彪 (6-7周) 安全工程2019-3-4</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
@@ -978,7 +984,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>市场调查与预测宋平 (1-9周) 工商管理(社会体育指导与管理)2019</t>
+          <t>市场调查与预测宋平 (1,3-9周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1095,7 +1101,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-1-2</t>
+          <t>材料腐蚀与防护岳丽杰 (1,3-9周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1103,7 +1109,11 @@
           <t>材料分析测试技术刘洪权 (1-6周) 金属材料工程2019-5</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>中级财务会计（I）郝敏,吴文文 (6周) 会计学(辅修)2020</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
@@ -1134,7 +1144,7 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
+          <t>海图制图王瑞富 (1-7周) 测绘工程2020-1-5</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
@@ -1152,22 +1162,22 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+          <t>应用统计学王家坤 (3-11周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+          <t>应用统计学王家坤 (3-11周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr"/>
@@ -1204,7 +1214,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>人力资源管理袁清和 (1-8周) 工业工程2020-1-2</t>
+          <t>人力资源管理袁清和 (1,3-8周) 工业工程2020-1-2</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1289,7 +1299,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>会计信息系统（A）崔树德 (1-14周) 会计学2019-1-2</t>
+          <t>会计信息系统（A）崔树德 (1,3-14周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1355,19 +1365,19 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>EXCEL财务应用赵桐 (1-12周) 会计学(辅修)2019</t>
+          <t>EXCEL财务应用赵桐 (1-3,5-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1520,7 +1530,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1,3-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1612,7 +1622,11 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>社会主义发展史曹丙燕 (1-8周) 智能制造工程2021-1-2班,能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>结晶学与矿物学杜龙,毛光周 (5-8周) 资源勘查工程2021-1-2</t>
@@ -1651,7 +1665,11 @@
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>社会主义发展史曹丙燕 (1-8周) 智能制造工程2021-1-2班,能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
           <t>矿相学郑雪 (3-10周) 资源勘查工程2020-1-3</t>
@@ -1709,7 +1727,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>环境影响评价曹晓强 (1-6周) 环境工程2019-1-2</t>
+          <t>环境影响评价曹晓强 (1-4,6周) 环境工程2019-1-2</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1953,12 +1971,12 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>Python 程序设计刘洪强 (1-9周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>误差理论与测量平差基础刘国林 (1-8周) 遥感科学与技术2020-3</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2129,11 +2147,7 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
@@ -2163,11 +2177,7 @@
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>机械设备故障诊断技术基础胡效东,孙爱芹 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
@@ -2184,11 +2194,7 @@
           <t>机械设计基础（A）陈毕胜 (4-15周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
           <t>微机原理及应用王宝仁 (4-13周) 机械设计制造及其自动化2020-1-2</t>
@@ -2201,11 +2207,7 @@
       </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>机械设备故障诊断技术基础胡效东,孙爱芹 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
@@ -2234,22 +2236,14 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>机械设计基础鲍怀谦,曹冲振,孙静 (4-9,12-18周) 智能制造工程2020-1-3</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
@@ -2269,23 +2263,19 @@
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>国际企业管理高军红 (4-6周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr">
         <is>
           <t>机械设计基础鲍怀谦,曹冲振,孙静 (4-9,12-18周) 智能制造工程2020-1-3</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
           <t>微机原理及应用武洪恩 (4-13周) 机械设计制造及其自动化2020-5-6</t>
@@ -2331,7 +2321,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2358,7 +2348,7 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -2366,7 +2356,7 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -2434,12 +2424,12 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Python 程序设计刘洪强 (1-9周) 地理信息科学2019-1-3</t>
+          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>误差理论与测量平差基础刘国林 (1-8周) 遥感科学与技术2020-3</t>
+          <t>高等数学（A）（2-2）宋治涛 (1-8周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2460,7 +2450,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>土地管理与信息系统李云岭 (1-9周) 地理信息科学2019-1-3</t>
+          <t>土地管理与信息系统李云岭 (1,3-9周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr"/>
@@ -2497,7 +2487,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>材料力学（B）赵增辉 (1-11周) 采矿工程2020-1-2</t>
+          <t>材料力学（B）赵增辉 (1,3-11周) 采矿工程2020-1-2</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2602,7 +2592,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>流体力学辛林 (6-8周) 安全工程2020-3</t>
+          <t>流体力学陈旭,辛林 (6-8周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2628,11 +2618,7 @@
           <t>火灾事故调查孔彪 (4-11周) 安全工程2019-1-2</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>流体力学陈旭 (6-13周) 安全工程2020-4</t>
-        </is>
-      </c>
+      <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr">
         <is>
@@ -2739,7 +2725,7 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr">
         <is>
-          <t>可编程控制器姜雪,王德堂 (1-8周) 机械电子工程2019-1-3</t>
+          <t>可编程控制器姜雪,王德堂 (1,3-8周) 机械电子工程2019-1-3</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2820,7 +2806,7 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr">
         <is>
-          <t>应用统计学（C）张杰 (1-7周) 物流管理2019-1-2</t>
+          <t>应用统计学（C）张杰 (1,3-7周) 物流管理2019-1-2</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -2925,7 +2911,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语朱慧灵 (1-8周) 金属材料工程2019-4-5</t>
+          <t>金属材料工程专业英语朱慧灵 (1,3-8周) 金属材料工程2019-4-5</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3040,7 +3026,7 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>液压传动与控制杨扬 (1-9周) 机械电子工程2019-5</t>
+          <t>液压传动与控制杨扬 (1,3-9周) 机械电子工程2019-5</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -3057,7 +3043,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>金融专业英语闻德美 (1-9周) 金融学2019-1-2</t>
+          <t>金融专业英语闻德美 (1,3-9周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3094,12 +3080,12 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>电子技术仉毅 (1-6,10-13周) 机械电子工程2020-5-6</t>
+          <t>电子技术仉毅 (1,3-6,10-13周) 机械电子工程2020-5-6</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>计算方法江守波 (1-6周) 机械电子工程2020-1-2</t>
+          <t>计算方法江守波 (1,3-6周) 机械电子工程2020-1-2</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3144,7 +3130,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>化工分离工程高军 (1-9周) 化学工程与工艺2019-1-3</t>
+          <t>化工分离工程高军 (1,3-9周) 化学工程与工艺2019-1-3</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3162,7 +3148,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>应急与危机心理干预于海明 (1-8周) 安全工程（应急管理方向）2019</t>
+          <t>应急与危机心理干预刘震 (3-8周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3191,7 +3177,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>分析化学陈伟 (1-8周) 应用化学2021-2</t>
+          <t>分析化学陈伟 (1,3-8周) 应用化学2021-2</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -3292,7 +3278,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>应急与危机心理干预于海明 (1-8周) 安全工程（应急管理方向）2019</t>
+          <t>应急与危机心理干预刘震 (3-8周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -3335,16 +3321,8 @@
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>流体力学陈旭 (6-13周) 安全工程2020-4</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -3361,18 +3339,18 @@
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
           <t>数字摄影测量原理与方法解斐斐 (1-12周) 遥感科学与技术2019-2-3</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>环境工程CAD张林林 (3,5-6周) 环境工程（海洋环境方向）2019</t>
+        </is>
+      </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr">
@@ -3383,11 +3361,7 @@
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
@@ -3423,7 +3397,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3450,12 +3424,12 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>银行结算*邢苗 (1-9周) 投资学2019-1-2</t>
+          <t>银行结算*邢苗 (1,3-9周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>绿色物流杨珍花 (1-8周) 物流管理2020-1-2</t>
+          <t>绿色物流杨珍花 (1,3-8周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr"/>
@@ -3487,11 +3461,7 @@
           <t>电子技术吴清收 (1-6,10-14周) 机械电子工程2020-3-4</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>可编程控制器郝妮妮 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
@@ -3517,17 +3487,9 @@
           <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (2,4,6,10,12,14双周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
@@ -3536,26 +3498,18 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>可编程控制器郝妮妮 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>电子技术吴清收 (1-6,10-13周) 机械电子工程2020-3-4</t>
+          <t>电子技术吴清收 (1,3-6,10-13周) 机械电子工程2020-3-4</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+          <t>材料分析测试技术汪静 (1,3-12周) 材料化学2019-1</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
@@ -3802,7 +3756,7 @@
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>古生物学李守军 (1-8周) 资源勘查工程2020-1-3</t>
+          <t>古生物学李守军 (1,3-8周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -3962,7 +3916,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>古生物学王平丽 (1-8周) 资源勘查工程2020-1-3</t>
+          <t>古生物学王平丽 (2-8周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4046,7 +4000,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>概率论与数理统计聂世谦 (1-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
+          <t>概率论与数理统计聂世谦 (1,3-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -4122,7 +4076,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
+          <t>地下工程测量学景冬 (6-7周) 测绘工程2019-1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4221,20 +4175,12 @@
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (2,4,6,10,12,14双周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (2,4,6,10,12,14双周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
           <t>机械制造技术基础(B)黄为民 (1-9,14-15双周) 材料成型及控制工程2019-1-2</t>
@@ -4263,12 +4209,12 @@
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr">
         <is>
-          <t>机械制造技术基础(B)黄为民 (1-9,14-15双周) 材料成型及控制工程2019-1-2</t>
+          <t>机械制造技术基础(B)黄为民 (4,6,8,14双周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>计算方法李贺 (1-6周) 机械电子工程2020-3-4</t>
+          <t>计算方法李贺 (1,3-6周) 机械电子工程2020-3-4</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr"/>
@@ -4309,7 +4255,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>管理学(A)姜秀娟 (1-12周) 大数据管理与应用2021-1-2</t>
+          <t>管理学(A)姜秀娟 (1,3-12周) 大数据管理与应用2021-1-2</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4340,12 +4286,12 @@
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>计量经济学(B)姜涛 (1-7周) 会计学2019-1-2</t>
+          <t>计量经济学(B)姜涛 (1,3-7周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr"/>
@@ -4383,7 +4329,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>大地测量学基础张燕 (1-10周) 测绘工程2020-4-5</t>
+          <t>大地测量学基础张燕 (1-7,9-10周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -4404,7 +4350,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理苏醒 (1-9周) 遥感科学与技术2019-2</t>
+          <t>GNSS测量与数据处理苏醒 (1-4,6,9周) 遥感科学与技术2019-2</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -4434,7 +4380,7 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 测绘工程2019-1-3</t>
+          <t>GNSS测量与数据处理刘智敏 (1,3-6,8-9周) 测绘工程2019-1-3</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -4564,7 +4510,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>危险源辨识与控制刘国明 (6-13周) 安全工程2020-5</t>
+          <t>危险源辨识与控制徐翠翠 (6-13周) 安全工程2020-5</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -4605,10 +4551,14 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>危险源辨识与控制刘国明 (6-13周) 安全工程2020-5</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr"/>
+          <t>危险源辨识与控制徐翠翠 (6-13周) 安全工程2020-5</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>流体力学陈旭,辛林 (6-8周) 安全工程2020-3-4</t>
+        </is>
+      </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
@@ -4746,7 +4696,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>金属热处理工艺学王淑峰 (1-7周) 金属材料工程2019-5</t>
+          <t>金属热处理工艺学王淑峰 (1,3-7周) 金属材料工程2019-5</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4850,12 +4800,12 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>过程流体机械鲍怀谦,孙静 (1-9周) 过程装备与控制工程2019-1-2</t>
+          <t>过程流体机械鲍怀谦,孙静 (1,3-9周) 过程装备与控制工程2019-1-2</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>机械设计(A)高丽 (1-9,14周) 材料成型及控制工程2019-1</t>
+          <t>机械设计(A)高丽 (1,3-9,14周) 材料成型及控制工程2019-1</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5098,7 +5048,7 @@
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-1-2</t>
+          <t>高分子专业外语刘欣 (3-10周) 高分子材料与工程2019-1-2</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr"/>
@@ -5175,7 +5125,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>材料分析测试技术迟静 (1-6周) 金属材料工程2019-3</t>
+          <t>材料分析测试技术迟静 (1,3-6周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -5233,7 +5183,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-3-4</t>
+          <t>材料腐蚀与防护岳丽杰 (1,3-9周) 金属材料工程2019-3-4</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -5272,7 +5222,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>材料科学基础（B）丁建旭 (1-8周) 新能源材料与器件2020-1</t>
+          <t>材料科学基础（B）丁建旭 (1,3-8周) 新能源材料与器件2020-1</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
@@ -5337,11 +5287,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>流体力学辛林 (6-13周) 安全工程2020-3</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
@@ -5367,7 +5313,11 @@
           <t>误差理论与测量平差基础石波 (1-12周) 测绘工程2020-4-5</t>
         </is>
       </c>
-      <c r="AB52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>新产品开发流程及就业指导苗永平 (1-8周) 临班199</t>
+        </is>
+      </c>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
@@ -5406,7 +5356,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>海洋生物技术李慧娟 (1-8周) 生物工程2019-1-2</t>
+          <t>海洋生物技术李慧娟 (1,3-8周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5444,11 +5394,7 @@
           <t>发酵工程孟龙 (1-10周) 生物工程2019-1</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>煤化工工艺学梁鹏 (1-8周) 化学工程与工艺2019-1-3</t>
-        </is>
-      </c>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr">
@@ -5458,7 +5404,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>海洋生物技术李慧娟 (1-8周) 生物工程2019-1-2</t>
+          <t>海洋生物技术李慧娟 (1,3-8周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -5508,7 +5454,7 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>质量管理与可靠性孙友霞 (2-8周) 工业工程2019-1-2</t>
+          <t>质量管理与可靠性孙友霞 (3-8周) 工业工程2019-1-2</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -5588,12 +5534,12 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>汽轮机原理李志敏 (1-9周) 能源与动力工程2019-1-3</t>
+          <t>汽轮机原理李志敏 (1,3-9周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>普通化学赵媛媛 (1-8周) 能源与动力工程2019-1-3</t>
+          <t>普通化学赵媛媛 (1,3-8周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -5710,11 +5656,7 @@
           <t>有限元方法韩善灵 (1-9周) 机械设计制造及其自动化2019-4-5</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>数控技术于涛 (1-7周) 机械设计制造及其自动化2019-3-5</t>
-        </is>
-      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
@@ -5802,7 +5744,7 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr">
         <is>
-          <t>计量经济学（A）武传宝 (1-10周) 投资学2019-1-2</t>
+          <t>计量经济学（A）武传宝 (1,3-10周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
@@ -6186,7 +6128,7 @@
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr">
         <is>
-          <t>普通化学（A）高猛 (1-8周) 环境工程2021-3</t>
+          <t>普通化学（A）高猛 (1,3-8周) 环境工程2021-3</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
@@ -6318,7 +6260,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语吴楠楠 (1-8周) 金属材料工程2019-1</t>
+          <t>金属材料工程专业英语吴楠楠 (1,3-8周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -6533,7 +6475,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
+          <t>大地测量学基础郭英 (1-6,8-10周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -6575,7 +6517,7 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr">
         <is>
-          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
+          <t>大地测量学基础郭英 (1-6,8-10周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
@@ -6652,7 +6594,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-3-4</t>
+          <t>高分子专业外语程桂青 (4-10周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="T68" t="inlineStr"/>
@@ -6660,7 +6602,7 @@
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr">
         <is>
-          <t>普通化学（A）崔立强 (1-8周) 环境工程2021-1-2</t>
+          <t>普通化学（A）崔立强 (1,3-8周) 环境工程2021-1-2</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
@@ -6814,7 +6756,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>化工安全与环保徐冬梅 (1-8周) 化学工程与工艺2019-3</t>
+          <t>化工安全与环保徐冬梅 (1,3-8周) 化学工程与工艺2019-3</t>
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
@@ -6856,7 +6798,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-3-4</t>
+          <t>高分子专业外语程桂青 (4-10周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -6873,7 +6815,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
+          <t>大地测量学基础韩晓冬 (1,3-6,8-10周) 测绘工程2020-2</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -6895,7 +6837,7 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr">
         <is>
-          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
+          <t>大地测量学基础韩晓冬 (1-6,8-10周) 测绘工程2020-2</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -6907,12 +6849,12 @@
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理崔健慧 (6-9周) 遥感科学与技术2019-3</t>
+          <t>GNSS测量与数据处理崔健慧 (6,8-9周) 遥感科学与技术2019-3</t>
         </is>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>微波遥感王志勇 (1-9周) 遥感科学与技术2019-1-3</t>
+          <t>微波遥感王志勇 (1,3-9周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -7046,12 +6988,12 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>有机化学黄小文 (1-16周) 材料化学2020-2</t>
+          <t>有机化学黄小文 (1,3-16周) 材料化学2020-2</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语白雪 (1-8周) 金属材料工程2019-2</t>
+          <t>金属材料工程专业英语白雪 (1,3-8周) 金属材料工程2019-2</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -7094,7 +7036,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>金属热处理工艺学孙金全 (1-7周) 金属材料工程2019-1-2</t>
+          <t>金属热处理工艺学孙金全 (1,3-7周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr"/>
@@ -7139,7 +7081,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>数据挖掘张福平 (1-9周) 电子商务2019-1</t>
+          <t>数据挖掘张福平 (1,3-9周) 电子商务2019-1</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -7339,7 +7281,7 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>汽车理论李玉善 (1-10周) 车辆工程2019-1</t>
+          <t>汽车理论李玉善 (1-4,6-10周) 车辆工程2019-1</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -7589,12 +7531,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
+          <t>景观设计（二）仇同文 (6,8-9周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>景观设计（二）仇同文 (6-9周) 环境设计2019-2</t>
+          <t>景观设计（二）仇同文 (6,8-9周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -7904,68 +7846,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>J14-535室</t>
+          <t>J14-522室</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>思想道德与法治金淑敏 (1-12周) 应用化学2021-1-2班,生物工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>空间大地测量学基础孔巧丽 (1-9周) 测绘工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
-        </is>
-      </c>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>社会主义发展史李四光 (1-8周) 环境工程2021-1-4</t>
-        </is>
-      </c>
+      <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>空间大地测量学基础孔巧丽 (1-9周) 测绘工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>社会主义发展史李四光 (1-8周) 环境工程2021-1-4</t>
-        </is>
-      </c>
+      <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
@@ -7973,8 +7879,16 @@
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="inlineStr"/>
       <c r="AF85" t="inlineStr"/>
-      <c r="AG85" t="inlineStr"/>
-      <c r="AH85" t="inlineStr"/>
+      <c r="AG85" t="inlineStr">
+        <is>
+          <t>图形创意孙德波 (6周) 视觉传达设计2020-2</t>
+        </is>
+      </c>
+      <c r="AH85" t="inlineStr">
+        <is>
+          <t>图形创意孙德波 (6周) 视觉传达设计2020-2</t>
+        </is>
+      </c>
       <c r="AI85" t="inlineStr"/>
       <c r="AJ85" t="inlineStr"/>
       <c r="AK85" t="inlineStr"/>
@@ -7985,52 +7899,68 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>J14-524室</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
-        </is>
-      </c>
+          <t>J14-535室</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
-        </is>
-      </c>
+          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>思想道德与法治金淑敏 (1-12周) 应用化学2021-1-2班,生物工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>空间大地测量学基础孔巧丽 (1,3-9周) 测绘工程2019-1-2</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>社会主义发展史李四光 (1-8周) 环境工程2021-1-4</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
-        </is>
-      </c>
+      <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr">
         <is>
-          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
+          <t>空间大地测量学基础孔巧丽 (1-9周) 测绘工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>社会主义发展史李四光 (1-8周) 环境工程2021-1-4</t>
+        </is>
+      </c>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
@@ -8050,24 +7980,28 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>J14-526室</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+          <t>J14-524室</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
@@ -8076,26 +8010,10 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
@@ -8107,8 +8025,16 @@
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr"/>
       <c r="AF87" t="inlineStr"/>
-      <c r="AG87" t="inlineStr"/>
-      <c r="AH87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr">
+        <is>
+          <t>图形创意刘佳 (6周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="AH87" t="inlineStr">
+        <is>
+          <t>图形创意刘佳 (6周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
       <c r="AI87" t="inlineStr"/>
       <c r="AJ87" t="inlineStr"/>
       <c r="AK87" t="inlineStr"/>
@@ -8386,7 +8312,7 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 遥感科学与技术2019-1</t>
+          <t>GNSS测量与数据处理刘智敏 (1-6,8-9周) 遥感科学与技术2019-1</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -8404,14 +8330,10 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
-        </is>
-      </c>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 遥感科学与技术2019-1</t>
+          <t>GNSS测量与数据处理刘智敏 (1-6,8-9周) 遥感科学与技术2019-1</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -8431,7 +8353,7 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr">
         <is>
-          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
+          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3 地下工程测量学景冬 (6-7周) 测绘工程2019-1</t>
         </is>
       </c>
       <c r="W92" t="inlineStr"/>
@@ -8543,15 +8465,23 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
+          <t>工程测量学常乐 (1-7,9-12周) 测绘工程2019-2</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 资源勘查工程2021-1</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 电子信息科学与技术2021-1</t>
+        </is>
+      </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
@@ -8738,7 +8668,7 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>工程测量学于胜文 (1-12周) 测绘工程2019-1</t>
+          <t>工程测量学于胜文 (1-6,8-12周) 测绘工程2019-1</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
